--- a/src/main/resources/script/db/init-data/workflow_service/hzero_platform/hzero-platform-code-rule.xlsx
+++ b/src/main/resources/script/db/init-data/workflow_service/hzero_platform/hzero-platform-code-rule.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="127">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2021-01-28</t>
+    <t>2022-05-19</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2073,6 +2073,15 @@
     <t>Workflow approver Rule Line Code</t>
   </si>
   <si>
+    <t>hpfm_code_rule-11</t>
+  </si>
+  <si>
+    <t>HWKF.VARIABLE.BATCH_NUM</t>
+  </si>
+  <si>
+    <t>工作流-批量变量批次号</t>
+  </si>
+  <si>
     <t>编码规则分配</t>
   </si>
   <si>
@@ -2100,7 +2109,7 @@
     <t>tenant_id</t>
   </si>
   <si>
-    <t>hpfm_code_rule_dist-13</t>
+    <t>hpfm_code_rule_dist-14</t>
   </si>
   <si>
     <t>GLOBAL</t>
@@ -2109,12 +2118,15 @@
     <t>1</t>
   </si>
   <si>
-    <t>hpfm_code_rule_dist-14</t>
-  </si>
-  <si>
     <t>hpfm_code_rule_dist-15</t>
   </si>
   <si>
+    <t>hpfm_code_rule_dist-16</t>
+  </si>
+  <si>
+    <t>hpfm_code_rule_dist-17</t>
+  </si>
+  <si>
     <t>编码规则明细</t>
   </si>
   <si>
@@ -2187,19 +2199,19 @@
     <t>5</t>
   </si>
   <si>
-    <t>200</t>
+    <t>800</t>
   </si>
   <si>
     <t>NEVER</t>
   </si>
   <si>
-    <t>2021-01-12 16:15:36.0</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>2021-01-12 16:14:50.0</t>
+    <t>2021-11-11 14:07:32.0</t>
+  </si>
+  <si>
+    <t>601</t>
+  </si>
+  <si>
+    <t>2021-11-11 17:04:11.0</t>
   </si>
   <si>
     <t>CALL</t>
@@ -2209,6 +2221,9 @@
   </si>
   <si>
     <t>8</t>
+  </si>
+  <si>
+    <t>VAR</t>
   </si>
 </sst>
 </file>
@@ -3251,7 +3266,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3389,65 +3404,65 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s">
+    <row r="11">
+      <c r="E11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
         <v>50</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>51</v>
       </c>
-      <c r="C12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" t="s" s="44">
-        <v>77</v>
-      </c>
-      <c r="E12" t="s" s="45">
-        <v>78</v>
-      </c>
-      <c r="F12" t="s" s="46">
+      <c r="C13" t="s">
         <v>79</v>
       </c>
-      <c r="G12" t="s" s="47">
+      <c r="D13" t="s" s="44">
         <v>80</v>
       </c>
-      <c r="H12" t="s" s="48">
+      <c r="E13" t="s" s="45">
         <v>81</v>
       </c>
-      <c r="I12" t="s">
+      <c r="F13" t="s" s="46">
         <v>82</v>
       </c>
-      <c r="J12" t="s">
+      <c r="G13" t="s" s="47">
         <v>83</v>
       </c>
-      <c r="K12" t="s">
+      <c r="H13" t="s" s="48">
+        <v>84</v>
+      </c>
+      <c r="I13" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" t="s">
         <v>61</v>
       </c>
-      <c r="L12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="E13" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13">
-        <f>编码规则数据!$E$8</f>
-      </c>
-      <c r="G13" t="s">
-        <v>86</v>
-      </c>
-      <c r="H13" t="s">
-        <v>86</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="L13" t="s">
         <v>87</v>
-      </c>
-      <c r="J13" t="s">
-        <v>87</v>
-      </c>
-      <c r="L13" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="14">
@@ -3455,19 +3470,19 @@
         <v>88</v>
       </c>
       <c r="F14">
-        <f>编码规则数据!$E$9</f>
+        <f>编码规则数据!$E$8</f>
       </c>
       <c r="G14" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I14" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J14" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L14" t="s">
         <v>67</v>
@@ -3475,140 +3490,140 @@
     </row>
     <row r="15">
       <c r="E15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15">
+        <f>编码规则数据!$E$9</f>
+      </c>
+      <c r="G15" t="s">
         <v>89</v>
       </c>
-      <c r="F15">
-        <f>编码规则数据!$E$10</f>
-      </c>
-      <c r="G15" t="s">
-        <v>86</v>
-      </c>
       <c r="H15" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I15" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J15" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L15" t="s">
         <v>67</v>
       </c>
     </row>
+    <row r="16">
+      <c r="E16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16">
+        <f>编码规则数据!$E$10</f>
+      </c>
+      <c r="G16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16" t="s">
+        <v>90</v>
+      </c>
+      <c r="J16" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16" t="s">
+        <v>67</v>
+      </c>
+    </row>
     <row r="17">
-      <c r="A17" t="s">
+      <c r="E17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17">
+        <f>编码规则数据!$E$11</f>
+      </c>
+      <c r="G17" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" t="s">
+        <v>89</v>
+      </c>
+      <c r="I17" t="s">
+        <v>90</v>
+      </c>
+      <c r="J17" t="s">
+        <v>90</v>
+      </c>
+      <c r="L17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
         <v>50</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
         <v>51</v>
       </c>
-      <c r="C17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" t="s" s="49">
-        <v>91</v>
-      </c>
-      <c r="E17" t="s" s="50">
-        <v>92</v>
-      </c>
-      <c r="F17" t="s" s="51">
-        <v>93</v>
-      </c>
-      <c r="G17" t="s" s="52">
+      <c r="C19" t="s">
         <v>94</v>
       </c>
-      <c r="H17" t="s">
+      <c r="D19" t="s" s="49">
         <v>95</v>
       </c>
-      <c r="I17" t="s">
+      <c r="E19" t="s" s="50">
         <v>96</v>
       </c>
-      <c r="J17" t="s">
+      <c r="F19" t="s" s="51">
         <v>97</v>
       </c>
-      <c r="K17" t="s">
+      <c r="G19" t="s" s="52">
         <v>98</v>
       </c>
-      <c r="L17" t="s">
+      <c r="H19" t="s">
         <v>99</v>
       </c>
-      <c r="M17" t="s">
+      <c r="I19" t="s">
         <v>100</v>
       </c>
-      <c r="N17" t="s">
+      <c r="J19" t="s">
         <v>101</v>
       </c>
-      <c r="O17" t="s">
+      <c r="K19" t="s">
         <v>102</v>
       </c>
-      <c r="P17" t="s">
+      <c r="L19" t="s">
         <v>103</v>
       </c>
-      <c r="Q17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="E18" t="s">
+      <c r="M19" t="s">
         <v>104</v>
       </c>
-      <c r="F18">
-        <f>编码规则数据!$E$14</f>
-      </c>
-      <c r="G18" t="s">
+      <c r="N19" t="s">
+        <v>105</v>
+      </c>
+      <c r="O19" t="s">
+        <v>106</v>
+      </c>
+      <c r="P19" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q19" t="s">
         <v>87</v>
-      </c>
-      <c r="H18" t="s">
-        <v>105</v>
-      </c>
-      <c r="I18" t="s">
-        <v>106</v>
-      </c>
-      <c r="P18" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="E19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F19">
-        <f>编码规则数据!$E$15</f>
-      </c>
-      <c r="G19" t="s">
-        <v>87</v>
-      </c>
-      <c r="H19" t="s">
-        <v>105</v>
-      </c>
-      <c r="I19" t="s">
-        <v>107</v>
-      </c>
-      <c r="P19" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F20">
         <f>编码规则数据!$E$15</f>
       </c>
       <c r="G20" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="H20" t="s">
         <v>109</v>
       </c>
-      <c r="J20" t="s">
+      <c r="I20" t="s">
         <v>110</v>
       </c>
       <c r="P20" t="s">
@@ -3620,31 +3635,19 @@
     </row>
     <row r="21">
       <c r="E21" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F21">
-        <f>编码规则数据!$E$15</f>
+        <f>编码规则数据!$E$16</f>
       </c>
       <c r="G21" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" t="s">
+        <v>109</v>
+      </c>
+      <c r="I21" t="s">
         <v>111</v>
-      </c>
-      <c r="H21" t="s">
-        <v>112</v>
-      </c>
-      <c r="K21" t="s">
-        <v>113</v>
-      </c>
-      <c r="L21" t="s">
-        <v>87</v>
-      </c>
-      <c r="M21" t="s">
-        <v>114</v>
-      </c>
-      <c r="N21" t="s">
-        <v>115</v>
-      </c>
-      <c r="O21" t="s">
-        <v>116</v>
       </c>
       <c r="P21" t="s">
         <v>67</v>
@@ -3655,31 +3658,19 @@
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F22">
-        <f>编码规则数据!$E$14</f>
+        <f>编码规则数据!$E$16</f>
       </c>
       <c r="G22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H22" t="s">
-        <v>112</v>
-      </c>
-      <c r="K22" t="s">
         <v>113</v>
       </c>
-      <c r="L22" t="s">
-        <v>87</v>
-      </c>
-      <c r="M22" t="s">
-        <v>117</v>
-      </c>
-      <c r="N22" t="s">
-        <v>115</v>
-      </c>
-      <c r="O22" t="s">
-        <v>118</v>
+      <c r="J22" t="s">
+        <v>114</v>
       </c>
       <c r="P22" t="s">
         <v>67</v>
@@ -3690,19 +3681,31 @@
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F23">
-        <f>编码规则数据!$E$14</f>
+        <f>编码规则数据!$E$16</f>
       </c>
       <c r="G23" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="H23" t="s">
-        <v>109</v>
-      </c>
-      <c r="J23" t="s">
-        <v>110</v>
+        <v>116</v>
+      </c>
+      <c r="K23" t="s">
+        <v>117</v>
+      </c>
+      <c r="L23" t="s">
+        <v>90</v>
+      </c>
+      <c r="M23" t="s">
+        <v>118</v>
+      </c>
+      <c r="N23" t="s">
+        <v>119</v>
+      </c>
+      <c r="O23" t="s">
+        <v>120</v>
       </c>
       <c r="P23" t="s">
         <v>67</v>
@@ -3713,19 +3716,31 @@
     </row>
     <row r="24">
       <c r="E24" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F24">
-        <f>编码规则数据!$E$13</f>
+        <f>编码规则数据!$E$15</f>
       </c>
       <c r="G24" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="H24" t="s">
-        <v>105</v>
-      </c>
-      <c r="I24" t="s">
+        <v>116</v>
+      </c>
+      <c r="K24" t="s">
+        <v>117</v>
+      </c>
+      <c r="L24" t="s">
+        <v>90</v>
+      </c>
+      <c r="M24" t="s">
+        <v>121</v>
+      </c>
+      <c r="N24" t="s">
         <v>119</v>
+      </c>
+      <c r="O24" t="s">
+        <v>122</v>
       </c>
       <c r="P24" t="s">
         <v>67</v>
@@ -3736,19 +3751,19 @@
     </row>
     <row r="25">
       <c r="E25" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F25">
-        <f>编码规则数据!$E$13</f>
+        <f>编码规则数据!$E$15</f>
       </c>
       <c r="G25" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H25" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J25" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P25" t="s">
         <v>67</v>
@@ -3759,24 +3774,139 @@
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F26">
-        <f>编码规则数据!$E$13</f>
+        <f>编码规则数据!$E$14</f>
       </c>
       <c r="G26" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="H26" t="s">
-        <v>120</v>
-      </c>
-      <c r="K26" t="s">
-        <v>121</v>
+        <v>109</v>
+      </c>
+      <c r="I26" t="s">
+        <v>123</v>
       </c>
       <c r="P26" t="s">
         <v>67</v>
       </c>
       <c r="Q26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="E27" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27">
+        <f>编码规则数据!$E$14</f>
+      </c>
+      <c r="G27" t="s">
+        <v>112</v>
+      </c>
+      <c r="H27" t="s">
+        <v>113</v>
+      </c>
+      <c r="J27" t="s">
+        <v>114</v>
+      </c>
+      <c r="P27" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28">
+        <f>编码规则数据!$E$14</f>
+      </c>
+      <c r="G28" t="s">
+        <v>115</v>
+      </c>
+      <c r="H28" t="s">
+        <v>124</v>
+      </c>
+      <c r="K28" t="s">
+        <v>125</v>
+      </c>
+      <c r="P28" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="E29" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29">
+        <f>编码规则数据!$E$17</f>
+      </c>
+      <c r="G29" t="s">
+        <v>90</v>
+      </c>
+      <c r="H29" t="s">
+        <v>109</v>
+      </c>
+      <c r="I29" t="s">
+        <v>126</v>
+      </c>
+      <c r="P29" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="E30" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30">
+        <f>编码规则数据!$E$17</f>
+      </c>
+      <c r="G30" t="s">
+        <v>112</v>
+      </c>
+      <c r="H30" t="s">
+        <v>113</v>
+      </c>
+      <c r="J30" t="s">
+        <v>114</v>
+      </c>
+      <c r="P30" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31" t="s">
+        <v>108</v>
+      </c>
+      <c r="F31">
+        <f>编码规则数据!$E$17</f>
+      </c>
+      <c r="G31" t="s">
+        <v>115</v>
+      </c>
+      <c r="H31" t="s">
+        <v>124</v>
+      </c>
+      <c r="K31" t="s">
+        <v>125</v>
+      </c>
+      <c r="P31" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q31" t="s">
         <v>67</v>
       </c>
     </row>
